--- a/medicine/Enfance/Yuio/Yuio.xlsx
+++ b/medicine/Enfance/Yuio/Yuio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Simon, connu sous le pseudonyme de Yuio, né le 2 décembre 1976 à Namur (Région wallonne), est un auteur de bande dessinée, coloriste et illustrateur belge.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Simon naît le 2 décembre 1976[1] à Namur[2], où il commence des études artistiques en arts plastiques[3], puis par une formation en bande dessinée à l'Institut Saint-Luc de Bruxelles[4].
-À ses débuts en 2002, Étienne Simon fait principalement de la mise en couleur (Célestin Spéculoos, Pedro le Coati[5], etc.) et des illustrations pour des livres didactiques ou des revues pour enfants (comme Wapiti[4] ou Tremplin)[6]. Il choisit le pseudonyme Yuio[7] — quatre lettres consécutives sur un clavier AZERTY.
-Il s'associe avec Dav pour créer le personnage de Trikäär — un étudiant qui subit son environnement —, publié dans le magazine Spirou[8] en 2004 et 2005[5]. De 2006 à 2008, il réalise divers courts récits sur des scénarios d'Alcante, Gilbert Bouchard ou Falzar[9]. En 2007, avec Sylvain Ricard et CV7, il crée Frères de la Côte dans la collection « Migration »[10] aux éditions Caravelle, objet d'un accueil critique mitigé[11],[12],[13]. Avec Hélène Beney, il adapte en bande dessinée Cendrillon en 2012 chez Bamboo puis, en 2014, il lance Les Magiciens du Fer avec Cetrix[5] pour la collection « La BD dont vous êtes le héros ».
-Il travaille sur divers projets pour différents éditeurs. Il collabore avec l'agence Corporate Fiction et avec Artis - Historia[5]. Il participe à des projets d'illustration pour enfants[5], didactiques, des jeux de société dont Takenoko, Takenoko Chibis, Wiraqocha, Dojo, Nautilus, Zombie in my Pocket, Rockwell et Karnag[14],[15],[16], dans la communication. Depuis 2008, il donne des cours-ateliers de bande dessinée à l'École supérieure des arts Saint-Luc de Liège[17].
-À l'occasion de la refonte de son site web, il se fait bloggeur avec Chair à fauteuil, fait de petites humeurs et de torchages visuels, en 2005[18].
-Il œuvre encore comme coloriste, dans ce cas sous son nom de baptême. Lorsqu'il se met en scène ou raconte ses propres histoires, ses personnages prennent la forme d'animaux[19].
-Comme pédagogue, il écrit Dessiner - illustrer : mode d'emploi en BD aux éditions Eyrolles en 2019. Ce livre se veut être didactique et ludique se situant entre L'Apprenti mangaka d’Akira Toriyama et L'Art invisible de Scott McCloud, un ouvrage salué unanimement par la critique[20],[21],[22],[19],[23].
-En 2023, il réalise l'affiche de la fête de la BD et du livre pour enfants d'Andenne[24].
-En outre, il participe aux albums collectifs Brume aux éditions Ankama[25], il met en image Les Chansons de Boby Lapointe en bandes dessinées[26] (Petit à petit, 2001), celles de Claude François[26] (2003) et de Jacques Dutronc[26] (2004), ainsi que Les Nouvelles de Jules Verne en bandes dessinées[27] sur un scénario de Céka (Petit à petit, 2005), puis Disquettes Tome 1[28] (Dupuis, 2015).
-Lorsqu'il ne dessine pas, Yuio joue de la guitare[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Simon naît le 2 décembre 1976 à Namur, où il commence des études artistiques en arts plastiques, puis par une formation en bande dessinée à l'Institut Saint-Luc de Bruxelles.
+À ses débuts en 2002, Étienne Simon fait principalement de la mise en couleur (Célestin Spéculoos, Pedro le Coati, etc.) et des illustrations pour des livres didactiques ou des revues pour enfants (comme Wapiti ou Tremplin). Il choisit le pseudonyme Yuio — quatre lettres consécutives sur un clavier AZERTY.
+Il s'associe avec Dav pour créer le personnage de Trikäär — un étudiant qui subit son environnement —, publié dans le magazine Spirou en 2004 et 2005. De 2006 à 2008, il réalise divers courts récits sur des scénarios d'Alcante, Gilbert Bouchard ou Falzar. En 2007, avec Sylvain Ricard et CV7, il crée Frères de la Côte dans la collection « Migration » aux éditions Caravelle, objet d'un accueil critique mitigé. Avec Hélène Beney, il adapte en bande dessinée Cendrillon en 2012 chez Bamboo puis, en 2014, il lance Les Magiciens du Fer avec Cetrix pour la collection « La BD dont vous êtes le héros ».
+Il travaille sur divers projets pour différents éditeurs. Il collabore avec l'agence Corporate Fiction et avec Artis - Historia. Il participe à des projets d'illustration pour enfants, didactiques, des jeux de société dont Takenoko, Takenoko Chibis, Wiraqocha, Dojo, Nautilus, Zombie in my Pocket, Rockwell et Karnag dans la communication. Depuis 2008, il donne des cours-ateliers de bande dessinée à l'École supérieure des arts Saint-Luc de Liège.
+À l'occasion de la refonte de son site web, il se fait bloggeur avec Chair à fauteuil, fait de petites humeurs et de torchages visuels, en 2005.
+Il œuvre encore comme coloriste, dans ce cas sous son nom de baptême. Lorsqu'il se met en scène ou raconte ses propres histoires, ses personnages prennent la forme d'animaux.
+Comme pédagogue, il écrit Dessiner - illustrer : mode d'emploi en BD aux éditions Eyrolles en 2019. Ce livre se veut être didactique et ludique se situant entre L'Apprenti mangaka d’Akira Toriyama et L'Art invisible de Scott McCloud, un ouvrage salué unanimement par la critique.
+En 2023, il réalise l'affiche de la fête de la BD et du livre pour enfants d'Andenne.
+En outre, il participe aux albums collectifs Brume aux éditions Ankama, il met en image Les Chansons de Boby Lapointe en bandes dessinées (Petit à petit, 2001), celles de Claude François (2003) et de Jacques Dutronc (2004), ainsi que Les Nouvelles de Jules Verne en bandes dessinées sur un scénario de Céka (Petit à petit, 2005), puis Disquettes Tome 1 (Dupuis, 2015).
+Lorsqu'il ne dessine pas, Yuio joue de la guitare.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yuio demeure à Wépion en province de Namur[29].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuio demeure à Wépion en province de Namur.
 </t>
         </is>
       </c>
@@ -584,14 +600,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dessin
-Frères de la Côte : L'Héritière de Mindanao[10],[11],[30], avec Sylvain Ricard et CV7, Caravelle coll. « Migration », 2007  (ISBN 978-2-87444-029-8)
+          <t>Dessin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frères de la Côte : L'Héritière de Mindanao avec Sylvain Ricard et CV7, Caravelle coll. « Migration », 2007  (ISBN 978-2-87444-029-8)
 Pages d'un Canard, 2 tomes en, auto-édition, 2007 - 2009
 Dessin d'un Canard, trois tomes en auto-édition, 2007 - 2009
 Cendrillon, avec Hélène Beney, Pouss' de Bamboo, 2012  (ISBN 978-2-8189-0906-5)
-Dessiner - illustrer : mode d'emploi en BD, Eyrolles, 2019[21],[31],[19],[23]  (ISBN 978-2-212-67729-4).
-Livres d'illustrations
-Mission Eurovision, avec Nicolas Ancion, Éditions Averbode - Récits express[32], 2007
+Dessiner - illustrer : mode d'emploi en BD, Eyrolles, 2019  (ISBN 978-2-212-67729-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres d'illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mission Eurovision, avec Nicolas Ancion, Éditions Averbode - Récits express, 2007
 Le Jour où j'ai adopté un chat, avec Delphine Bolin, Averbode - Tirelire, 2007
 L'Hôtel du Bon Vent, avec Maryvonne Rebillard, Averbode - Récits express, 2008
 Un sort renversant pour Mirabelle, avec Annelise Heurtier, Averbode - Tirelire, 2008
@@ -599,18 +654,121 @@
 Wica, ravissante petite sorcière, avec Joëlle Van Hee, Averbode - Tirelire, 2010
 L'Ascenseur à remonter le temps, Averbode - Tirelire, 2010
 Le Grand Blanc, avec Caryl Férey, Averbode - Récits express, 2011
-Du sel sur mes lèvres avec Gaëtan Serra, Averbode - Récits express[26]
+Du sel sur mes lèvres avec Gaëtan Serra, Averbode - Récits express
 Mona fille de la terre avec Isabelle Darras, Ernst Klett Verlag, coll. « La France fantastique », 2014  (ISBN 9783126238151)
 Bayard et les quatre frères avec Isabelle Darras, Ernst Klett Verlag, coll. « La France fantastique », 2015  (ISBN 978-3126238168)
-La Revanche du prince des Oropaa avec Isabelle Darras, Ernst Klett Verlag, coll. « La France fantastique », 2017  (ISBN 978-3126238175).
-Livres-jeux
-Les Magiciens du fer, Guillaume « Cetrix » Pracht, Makaka éditions, coll. « La BD dont vous êtes le héros », 2014  (ISBN 9782917371503)[33].
-Collectifs
-Les Nouvelles de Jules Verne en bandes dessinées[27], Petit à petit, coll. « Littérature en BD », mai 2005Scénario : Céka - Dessin : collectif dont Yuio - Couleurs : quadrichromie -  (ISBN 2-84949-023-7)
-Comme coloriste
+La Revanche du prince des Oropaa avec Isabelle Darras, Ernst Klett Verlag, coll. « La France fantastique », 2017  (ISBN 978-3126238175).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres-jeux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Magiciens du fer, Guillaume « Cetrix » Pracht, Makaka éditions, coll. « La BD dont vous êtes le héros », 2014  (ISBN 9782917371503).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Nouvelles de Jules Verne en bandes dessinées, Petit à petit, coll. « Littérature en BD », mai 2005Scénario : Céka - Dessin : collectif dont Yuio - Couleurs : quadrichromie -  (ISBN 2-84949-023-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme coloriste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albums mis en couleur
 Célestin Speculoos tome 2 : Mai 68, réédition, avec Yann et Denis Bodart, Vents d'Ouest, 2002
-Les Eaux blessées[34], avec Dominique David (dessin), Cristina Cuadra García et Rudi Miel (scénario), Office des publications officielles des communautés, coll. « Parlement européen », 2002  (ISBN 978-92-8232-205-5). Prix Alph-Art de la Communication.
+Les Eaux blessées, avec Dominique David (dessin), Cristina Cuadra García et Rudi Miel (scénario), Office des publications officielles des communautés, coll. « Parlement européen », 2002  (ISBN 978-92-8232-205-5). Prix Alph-Art de la Communication.
 The Boondocks : Tome 1 à 6, avec Aaron McGruder, Dargaud, de 2003 à 2006
 Green Manor, avec Denis Bodart, Dupuis, 2005
 24H sous tension, ouvrage de communication sur les risques de la tension, avec Denis Bodart et l'agence Corporate Fiction, Pfizer, 2004
@@ -621,7 +779,7 @@
 Gun Fu: the lost city #4, avec Howard M. Shum et Joey Mason, Axiom, 2004
 Gun Fu: Showgirls are forever, avec Howard M. Shum et Joey Mason, Axiom, 2006
 Profession : géomètre-expert, avec Denis Bodart et l'agence Corporate Fiction, 2007
-En tant que coloriste, au sein du studio Multiconcept production[26] :
+En tant que coloriste, au sein du studio Multiconcept production :
 Michel Vaillant tome 65, avec le Studio Graton, Graton éditeur, 2003
 Michel Vaillant tome 66, avec le Studio Graton, Graton Éditeur, 2004
 Michel Vaillant tome 67, avec le Studio Graton, Graton Éditeur, 2004
@@ -629,46 +787,83 @@
 Michel Vaillant Palmarès Inédit : L'Inconnu du tour de France, avec le Studio Graton, Graton Éditeur, 2004
 Michel Vaillant Palmarès Inédit : Les Labourdet tome 2, réédition, avec le Studio Graton, Graton Éditeur, 2002
 Michel Vaillant Palmarès Inédit : Les Labourdet tome 3, réédition, avec le Studio Graton, Graton Éditeur, 2003.
-Jeux de société
-Takenoko[14] Un jeu de Antoine Bauza, illustré par Joël Picksel, Nicolas Fructus, Yuio, édité par Bombyx, Matagot (2011) ;
-Takenoko Chibis[15] Auteur(s) : Antoine Bauza, Corentin Lebrat, Illustrateur(s) : Nicolas Fructus, Picksel, Yuio ;
-Wiraqocha[14], jeu de plateau avec des artefacts, un léviathan et des cristaux de Somnium ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jeux de société</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Takenoko Un jeu de Antoine Bauza, illustré par Joël Picksel, Nicolas Fructus, Yuio, édité par Bombyx, Matagot (2011) ;
+Takenoko Chibis Auteur(s) : Antoine Bauza, Corentin Lebrat, Illustrateur(s) : Nicolas Fructus, Picksel, Yuio ;
+Wiraqocha, jeu de plateau avec des artefacts, un léviathan et des cristaux de Somnium ;
 Dojo, jeu de Antoine Bauza, illustré par David Rakoto, Yuio, édité par Hazgaard Éditions (2011) :
-Nautilus[14], jeu de Charles Chevallier, illustré par Yuio, édité par Libellud (2012) ;
-Zombie in my Pocket[14] ;
-Karnag, jeu de Pascal Cadot, Sit Down !, 2012[14] ;
-Rockwell, jeu de Bruno Crépeault, Sit Down !, 2013[14].
+Nautilus, jeu de Charles Chevallier, illustré par Yuio, édité par Libellud (2012) ;
+Zombie in my Pocket ;
+Karnag, jeu de Pascal Cadot, Sit Down !, 2012 ;
+Rockwell, jeu de Bruno Crépeault, Sit Down !, 2013.
 Sushi Dice, jeu de Henry Kermarrec, Sit Down !, 2014.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yuio</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Yuio</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yuio</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yuio</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2007 :  prix de la Grande Ourse décerné à la Fête de la BD et du livre pour enfants à Andenne pour Frères de la côte : L'Héritière de Mindanao avec Sylvain Ricard et CV7[35],[36].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2007 :  prix de la Grande Ourse décerné à la Fête de la BD et du livre pour enfants à Andenne pour Frères de la côte : L'Héritière de Mindanao avec Sylvain Ricard et CV7,.</t>
         </is>
       </c>
     </row>
